--- a/biology/Botanique/Ibéris_toujours_vert/Ibéris_toujours_vert.xlsx
+++ b/biology/Botanique/Ibéris_toujours_vert/Ibéris_toujours_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_toujours_vert</t>
+          <t>Ibéris_toujours_vert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iberis sempervirens
 L'ibéris toujours vert (Iberis sempervirens L.) est une espèce de plante vivace de la famille des Brassicacées cultivée dans les jardins comme plante ornementale sous le nom de corbeille d'argent vivace.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_toujours_vert</t>
+          <t>Ibéris_toujours_vert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de petite taille (environ 20 à 30 cm de haut), à tiges ligneuses, tortueuses, couchées.
 Feuilles persistantes, allongées, linéaires, de couleur vert sombre. Fleurs blanc pur en grappes serrées, floraison de la fin du printemps au milieu de l'été.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_toujours_vert</t>
+          <t>Ibéris_toujours_vert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce spontanée dans les régions situées autour de la Méditerranée : (Afrique du Nord, Syrie, Turquie, Albanie, Grèce, y compris la Crète, Italie, Espagne, France et ex-Yougoslavie).
 Elle est largement cultivée dans tous les continents.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_toujours_vert</t>
+          <t>Ibéris_toujours_vert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante jouit d'une faveur toute particulière car elle est peu délicate.
 Préfère une exposition bien ensoleillée.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_toujours_vert</t>
+          <t>Ibéris_toujours_vert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée en massif ; il s'agit d'une PAM vivace.
 Elle est également utilisée en fleur coupée.
